--- a/Pizzería/excelfactura.xlsx
+++ b/Pizzería/excelfactura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saul\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saul\source\repos\pizzeria\Pizzería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF4058-A35C-46A6-8F29-0D06FC8AB577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A249BDAE-D8B8-47A1-87CA-236D6D75C1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="0" windowWidth="16845" windowHeight="15585" xr2:uid="{CD84497D-B8DD-419E-9357-2B0A2524D509}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD84497D-B8DD-419E-9357-2B0A2524D509}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Fecha:</t>
   </si>
   <si>
-    <t>Nº Factura:</t>
-  </si>
-  <si>
     <t>Datos Empresa</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Saúl Rabadán Ramírez</t>
   </si>
   <si>
-    <t>Ingredientes Pedido:</t>
-  </si>
-  <si>
     <t>Unidad</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Datos Cliente</t>
   </si>
   <si>
-    <t>Tarjeta de Crédito:</t>
-  </si>
-  <si>
     <t>Corre electrónico:</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>Teléfono:</t>
   </si>
   <si>
-    <t>FACTURA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> C/ Tres Pizzerias Murcia</t>
   </si>
   <si>
@@ -99,13 +87,19 @@
   </si>
   <si>
     <t>Hora entrega apróx:</t>
+  </si>
+  <si>
+    <t>Nº  Factura:</t>
+  </si>
+  <si>
+    <t>Pizzas   Pedido:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,19 +130,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF20000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF20000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -176,7 +179,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1919"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,18 +220,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -215,6 +264,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF1919"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFBC0000"/>
+      <color rgb="FFF20000"/>
       <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
@@ -233,61 +287,200 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171755</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Imágenes de Pizza Png - Descarga gratuita en Freepik">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F1929E-6AC6-13A2-AF1E-4BF3E4C1D00A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02731893-80C2-3E49-9F8C-0CA7A47DEA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="219075"/>
-          <a:ext cx="733425" cy="714680"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11940988" cy="831476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED63454-7DFA-7A58-B8B5-14CDD6767691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947160" y="876300"/>
+          <a:ext cx="1219200" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444649</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1258084</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3CD018-2673-079B-B040-EE4A1C5E4ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8683214" y="4263166"/>
+          <a:ext cx="813435" cy="795505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419997</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581922</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E7F7D1-6968-48D4-4E62-32FE4317E898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7107668" y="4157387"/>
+          <a:ext cx="1712819" cy="1069372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -612,361 +805,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D2350-4C7D-4C4E-8345-6161CE1DCB03}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="2" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4" t="s">
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="2" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:D4"/>
+  <mergeCells count="3">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
